--- a/Ageipelago Montezuma.xlsx
+++ b/Ageipelago Montezuma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/BB6DD295C338E39F/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{52ABE43D-D0EC-4445-926D-BAE51B3B6EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4E5F89B-3078-407A-86E2-E787AF307F78}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{52ABE43D-D0EC-4445-926D-BAE51B3B6EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{158F2B9D-FCA6-4A28-82F9-DCABEFC9D2B7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17AA2DA1-B674-46E5-8909-131BC3A5F213}"/>
+    <workbookView xWindow="-28545" yWindow="1335" windowWidth="27045" windowHeight="13740" xr2:uid="{17AA2DA1-B674-46E5-8909-131BC3A5F213}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Scenario</t>
   </si>
@@ -846,233 +846,6 @@
     <t>Collect 4 Relics in the 4 Monasteries</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moderate:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-12 Eagle Warriors
-12 Long Swordsmen
-(when killed only seems to retrain 4 Long Swordsmen)
-1 Battering Ram
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Standard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-No Castle Age
-0 Eagle Warriors
-12 Men-at-Arms
-0 Rams
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Identical to Moderate</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moderate:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-12 Long Swordsmen
-6 Cossbowmen
-2 Scorpions
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Standard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0 Scorpions
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4 Scorpions</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moderate:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-12 Eagle Warriors
-6 Elite Skirmishers
-8 Plumed Archers
-Starts with 7 Archers that upgrade to Crossbowmen, doesn't retrain
-8 Eagle Warrior when Northern Monastery is captured
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Standard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-No Castle Age
-0 Eagle Warriors
-0 Plumed Archers
-6 Skirmishers
-6 Archers
-8 Eagle Scouts when Northern Monastery is captured
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-12 Plumed Archers</t>
-    </r>
-  </si>
-  <si>
     <t>The western Relic/Monastery requires Docks and Transport Ships to be unlocked. The Player also needs to be able to somewhat fight Player 3.
 The northern Relic/Monastery requires the Player to be able to fight Player 4.
 Monks and Castle Age need to be unlocked for all 4 Relics.
@@ -1206,6 +979,574 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">3 Villagers
+1 Town Center
+3 Eagle Scouts
+Misc. Buildings
+200 Food
+200 Wood
+200 Gold
+200 Stone
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3 Watch Towers
+Technology: Murderholes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 Villagers
+1 Town Center
+1 Eagle Scout
+Misc. Buildings
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Imperial Age</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Opening up the Flagged Area will be needed to Capture the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Horses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For some Reason most of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tlaxcala's Units</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> despawn once the Player reaches the captured Warriors. Might wanna disable that.</t>
+    </r>
+  </si>
+  <si>
+    <t>Reach the Warriors to the South
+Reach the Warriors to the North
+Reach the outer Transport Ships
+Reach the Onager
+Reach the Warriors near Tlaxcala
+Reach the captured Warriors
+Reach the Ships in the City
+Reach the Monestary</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reaching the Transports and both Groups of Warriors on the starting Island is possible from the Beginning.
+Destroying </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the Wonder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is possible with any 1 Group of Warriors from the starting Landmass.
+Reaching the Onager is possible with any 1 Group of Warriors on the starting Island and the Transport Ships.
+Reaching the Warriors near </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tlaxcala</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the captured Warriors and the Ships in the City and destroying </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tlexcala's Castles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is possible with the southern Group of Warriors on the starting Island and the Transport Ships.
+Reaching the Monastery and killing Ornlu the Wolf is possible when able to reach and capture the Ships in the City.
+Destroying </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the Conquered Aztecs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cortèz'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Castles and defeating the Enemies is possible when able to reach and capture the Monastery.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Destroy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2/3/4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Castle/s
+Collect 1 Relic
+Bring 5/10/15 Horses to the flagged Area
+Bring 3/6/9 Trade Carts to the flagged Area</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 Elite Cannon Galleons
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tlaxcala</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lose Fabric Shields and El Dorado
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cortèz' Navy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lose Artillery and Carrack
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cortèz' Army</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lose Kataparuto</t>
+    </r>
+  </si>
+  <si>
+    <t>To get 9 Trade Carts and collect the Relic, the Player must be able to fight Players 2 and 3.
+To collect the Relic, the Player must have unlocked the Monastery and Monks.</t>
+  </si>
+  <si>
+    <t>To Rrach the Elite Cannon Galleons, the Player must have unlocked any Ship.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+12 Eagle Warriors
+12 Long Swordsmen (Feudal Age)
+4 Long Swordsmen (Castle Age)
+1 Battering Ram
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+No Castle Age
+12 Men-at-Arms
+1 Battering Ram
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+12 Long Swordsmen
+6 Cossbowmen
+2 Scorpions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+12 Long Swordsmen
+6 Cossbowmen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+12 Long Swordsmen
+6 Cossbowmen
+4 Scorpions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+12 Eagle Warriors
+6 Elite Skirmishers
+8 Plumed Archers
+6 Archers (Feudal Age)
+8 Eagle Warrior when Northern Monastery is captured
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6 Skirmishers
+6 Archers
+8 Eagle Scouts when Northern Monastery is captured
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+12 Eagle Warriors
+6 Elite Skirmishers
+12 Plumed Archers
+6 Archers (Feudal Age)
+8 Eagle Warrior when Northern Monastery is captured</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="14"/>
@@ -1227,56 +1568,60 @@
       </rPr>
       <t xml:space="preserve">8 Eagle Warriors
 8 Crossbowmen
+2 Monks
+5 War Galleys
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8 Eagle Warriors
+6 Crossbowmen
+1 Monks
+5 War Galleys
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+12 Eagle Warriors
+10 Crossbowmen
 3 Monks
-5 War Galleys
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Standard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-6 Crossbowmen
-2 Monks
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-12 Eagle Warriors
-10 Crossbowmen</t>
+5 War Galleys</t>
     </r>
   </si>
   <si>
@@ -1304,8 +1649,9 @@
 6 Eagle Warriors
 1 Jaguar Warrior (doesn't retrain)
 After Betrayal:
-8 Long Swordsmen
+10 Long Swordsmen
 12 Eagle Warriors
+6 Scorpions (while being attacked)
 3 Battering Rams
 </t>
     </r>
@@ -1353,8 +1699,10 @@
       </rPr>
       <t xml:space="preserve">
 After Betrayal:
-12 Long Swordsmen
-16 Eagle Warriors
+14 Long Swordsmen
+17 Eagle Warriors
+6 Scorpions (while being attacked)
+3 Battering Rams
 </t>
     </r>
   </si>
@@ -1409,9 +1757,8 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-0 Mangonels
 After Betrayal:
-0 Crossbowmen
+12 Plumed Archers
 </t>
     </r>
     <r>
@@ -1434,95 +1781,10 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Identical to Moderate</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3 Villagers
-1 Town Center
-3 Eagle Scouts
-Misc. Buildings
-200 Food
-200 Wood
-200 Gold
-200 Stone
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Standard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3 Watch Towers
-Technology: Murderholes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6 Villagers
-1 Town Center
-1 Eagle Scout
-Misc. Buildings
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Standard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Imperial Age</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Opening up the Flagged Area will be needed to Capture the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Horses</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
+After Betrayal:
+12 Crossbowmen
+15 Plumed Archers
+1 Mangonel</t>
     </r>
   </si>
   <si>
@@ -1551,6 +1813,7 @@
 8 Arbalesters
 3 Petards
 1 Trebuchet
+1 Monk
 </t>
     </r>
     <r>
@@ -1575,7 +1838,8 @@
       <t xml:space="preserve">
 2 Eagle Scouts
 6 Elite Skirmishers
-0 Arbalesters
+3 Petards
+1 Trebuchet
 </t>
     </r>
     <r>
@@ -1598,7 +1862,12 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-10 Elite Eagle Warriors</t>
+10 Elite Eagle Warriors
+2 Skirmishers
+8 Arbalesters
+3 Petards
+1 Trebuchet
+2 Monks</t>
     </r>
   </si>
   <si>
@@ -1625,7 +1894,7 @@
 7 Elite Cannon Galleons
 (do not retrain)
 8 Champions
-3 Cavalier
+4 Cavalier
 5 Elite Conquistadores
 2 Battering Rams
 4 Bombard Cannons
@@ -1654,8 +1923,10 @@
       <t xml:space="preserve">
 5 Elite Cannon Galleons
 (do not retrain)
-0 Cavalier
-0 Missionaries
+8 Champions
+5 Elite Conquistadores
+2 Battering Rams
+4 Bombard Cannons
 </t>
     </r>
     <r>
@@ -1678,8 +1949,14 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+7 Elite Cannon Galleons
+(do not retrain)
+8 Champions
 4 Cavalier
-2 Missionary</t>
+5 Elite Conquistadores
+2 Battering Rams
+4 Bombard Cannons
+2 Missionaries</t>
     </r>
   </si>
   <si>
@@ -1704,188 +1981,275 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> continues to exist, they will train a handfull of Eagle Souts.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For some Reason most of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tlaxcala's Units</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> despawn once the Player reaches the captured Warriors. Might wanna disable that.</t>
-    </r>
-  </si>
-  <si>
-    <t>Reach the Warriors to the South
-Reach the Warriors to the North
-Reach the outer Transport Ships
-Reach the Onager
-Reach the Warriors near Tlaxcala
-Reach the captured Warriors
-Reach the Ships in the City
-Reach the Monestary</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Reaching the Transports and both Groups of Warriors on the starting Island is possible from the Beginning.
-Destroying </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the Wonder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is possible with any 1 Group of Warriors from the starting Landmass.
-Reaching the Onager is possible with any 1 Group of Warriors on the starting Island and the Transport Ships.
-Reaching the Warriors near </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tlaxcala</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, the captured Warriors and the Ships in the City and destroying </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tlexcala's Castles</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is possible with the southern Group of Warriors on the starting Island and the Transport Ships.
-Reaching the Monastery and killing Ornlu the Wolf is possible when able to reach and capture the Ships in the City.
-Destroying </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the Conquered Aztecs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cortèz'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Castles and defeating the Enemies is possible when able to reach and capture the Monastery.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Destroy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2/3/4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Castle/s
-Collect 1 Relic
-Bring 5/10/15 Horses to the flagged Area
-Bring 3/6/9 Trade Carts to the flagged Area</t>
+      <t xml:space="preserve"> continues to exist, they will train 7 Eagle Souts.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+8 Conquistadores
+2 Mangonels
+1 Trebuchet
+1 Missionary
+2 Cannon Galleons
+Later:
+6 Conquistadores
+12 Pikemen
+2 Battering Rams
+2 Mangonels
+8 Galleons
+3 Demolition Ships
+1 Missionary
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+Identical to Moderate
+Later:
+6 Conquistadores
+12 Pikemen
+2 Battering Rams
+2 Mangonels
+8 Galleons
+3 Demolition Ships
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate
+Later:
+6 Conquistadores
+12 Pikemen
+2 Battering Rams
+2 Mangonels
+8 Galleons
+3 Demolition Ships
+2 Missionaries
+</t>
+    </r>
+  </si>
+  <si>
+    <t>3 War Galleys</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+6 Eagle Scouts
+20 Jaguar Warriors
+17 Arbalesters
+4 Scorpions
+1 Monk
+Later:
+12 Eagle Warriors
+6 Jaguar Warriors
+12 Arbalesters
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Idantical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+8 Eagle Warriors
+6 Elite Jaguar Warriors
+5 Arbalesters
+Later:
+4 Elite Eagle Warriors
+12 Elite Jaguar Warriors
+6 Crossbowmen
+2 Petards
+2 Scorpions
+1 Battering Ram
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+Identical to Moderate
+Later: 
+4 Elite Jaguar Warriors
+6 Crossbowmen
+2 Petards
+1 Battering Ram
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate</t>
     </r>
   </si>
   <si>
@@ -1945,9 +2309,13 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+Starting Units:
+Identical to Moderate
 Later:
+2 Cannon Galleons
 2 War Galleys
-0 Champions
+6 Elite Conquistadores
+2 Battering Rams
 1 Trebuchet
 1 Missionary
 </t>
@@ -1974,156 +2342,6 @@
       <t xml:space="preserve">
 Identical to Moderate
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moderate:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Starting Army:
-8 Eagle Warriors
-6 Elite Jaguar Warriors
-5 Arbalesters
-Later:
-4 Elite Eagle Warriors
-12 Elite Jaguar Warriors
-6 Crossbowmen
-2 Petards
-2 Scorpions
-1 Battering Ram
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Standard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Later: 
-0 Eagle Warriors
-4 Elite Jaguar Warriors
-6 Crossbowmen
-2 Petards
-1 Battering Ram
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Identical to Moderate</t>
-    </r>
-  </si>
-  <si>
-    <t>To get 9 Trade Carts and the Relic, the Player must be able to fight Players 2 and 3.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3 Elite Cannon Galleons
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tlaxcala</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> lose Fabric Shields and El Dorado
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cortèz' Navy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> lose Artillery and Carrack
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cortèz' Army</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> lose Kataparuto</t>
     </r>
   </si>
   <si>
@@ -2177,8 +2395,12 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-0 Missionaries
-0 Halbardiers
+3 Fast Fire Ships
+6 Galleons
+2 Elite Cannon Galleons
+6 Elite Conquistadores
+2 Trebuchets
+2 Siege Rams
 </t>
     </r>
     <r>
@@ -2201,7 +2423,14 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-2 Missonaries</t>
+3 Fast Fire Ships
+6 Galleons
+2 Elite Cannon Galleons
+8 Halbardiers
+6 Elite Conquistadores
+2 Missionaries
+2 Trebuchets
+2 Siege Rams</t>
     </r>
   </si>
   <si>
@@ -2230,6 +2459,7 @@
 2 Onagers
 4 Bombard Cannons
 2 Trebuchets
+1 Missionary
 </t>
     </r>
     <r>
@@ -2252,8 +2482,9 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-0 Paladins
-0 Bombard Cannons
+10 Elite Conquistadores
+2 Onagers
+2 Trebuchets
 </t>
     </r>
     <r>
@@ -2276,7 +2507,34 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Identical to Standard</t>
+12 Paladins
+10 Elite Conquistadores
+2 Onagers
+4 Bombard Cannons
+2 Trebuchets
+2 Missionaries</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tlaxcala</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is supposed to train Archers, but doesn't build an Archery Range.</t>
     </r>
   </si>
   <si>
@@ -2300,8 +2558,10 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+Starting Units:
 14 Elite Eagle Warriors
-(only retrains 10)
+Later:
+10 Elite Eagle Warriors
 10 Elite Jaguar Warriors
 2 Scorpions
 1 Siege Ram
@@ -2316,21 +2576,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Standard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">Standard:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Starting Units:
 14 Elite Eagle Warriors
-(only retrains 4)
-0 Elite Jaguar Warriors
-0 Scorpions
+Later:
+5 Elite Eagle Warriors
+1 Siege Ram
 </t>
     </r>
     <r>
@@ -2942,8 +3203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6923E20-2B0C-4CB1-8C9F-C8396B81B56D}">
   <dimension ref="B2:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="G9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3012,7 +3273,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>42</v>
@@ -3020,20 +3281,20 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="353.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3044,10 +3305,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
@@ -3056,26 +3317,26 @@
         <v>17</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="J5" s="8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="356.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3092,7 +3353,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>19</v>
@@ -3102,20 +3363,20 @@
         <v>23</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -3126,7 +3387,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>28</v>
@@ -3141,17 +3402,23 @@
         <v>25</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -3163,7 +3430,7 @@
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>33</v>
@@ -3178,10 +3445,10 @@
         <v>31</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -3189,10 +3456,10 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="319.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
@@ -3210,23 +3477,27 @@
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="Q9" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
